--- a/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsDiastolicEndPointValueSet.xlsx
+++ b/VitalSigns/NordicTXTestBuild/ValueSet-NoDomainVitalSignsDiastolicEndPointValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
